--- a/N11-Manuel-TestCases.xlsx
+++ b/N11-Manuel-TestCases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mert\Desktop\Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mert\Desktop\Automation\n11-test\n11-api-testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF82D3BF-CD7B-44A3-A0BD-279A01726D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5AAD53-3C65-434A-ABAE-855426114F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FFCF9A8B-C767-48DC-AA91-B9EB9DB984C0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>TC-01</t>
   </si>
@@ -141,6 +141,21 @@
   </si>
   <si>
     <t>5- İçeriği doldurup arama kontrolleri gerçekleştirilir.</t>
+  </si>
+  <si>
+    <t>valid searching</t>
+  </si>
+  <si>
+    <t>iphone 16 pro</t>
+  </si>
+  <si>
+    <t>6- Ürün seçilir.</t>
+  </si>
+  <si>
+    <t>7-Ürün Sepete eklenir.</t>
+  </si>
+  <si>
+    <t>8- Onaylama ve Ödeme Noktasına Kadar Getirildi.</t>
   </si>
 </sst>
 </file>
@@ -253,8 +268,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F07AC618-5BF6-4701-A1EC-4004B93F35CC}" name="Tablo1" displayName="Tablo1" ref="A1:G20" totalsRowShown="0" tableBorderDxfId="0">
-  <autoFilter ref="A1:G20" xr:uid="{F07AC618-5BF6-4701-A1EC-4004B93F35CC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F07AC618-5BF6-4701-A1EC-4004B93F35CC}" name="Tablo1" displayName="Tablo1" ref="A1:G22" totalsRowShown="0" tableBorderDxfId="0">
+  <autoFilter ref="A1:G22" xr:uid="{F07AC618-5BF6-4701-A1EC-4004B93F35CC}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{8E78C0EB-342F-4EB5-9C12-8D67F53D101C}" name="TC-ID"/>
     <tableColumn id="2" xr3:uid="{3197364A-466A-4E9B-BDAD-336AFEA76A10}" name="TC CATEGORY"/>
@@ -585,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12404B3F-DF0A-444C-88AE-E95F6BE33B93}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,10 +866,28 @@
       <c r="E19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="F19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{8B992E77-0675-4604-87FA-A366BCBAC2C1}"/>
